--- a/rendu.xlsx
+++ b/rendu.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anne-gabrielle/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anne-gabrielle/mig/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF03F56-967A-D847-8AC7-5A6E5173589D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674BF435-E0B5-7E4D-A553-4B5425F7EA33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="500" windowWidth="10000" windowHeight="14640" xr2:uid="{DA62A610-0D5E-C246-A910-E97634B77816}"/>
+    <workbookView xWindow="980" yWindow="500" windowWidth="12700" windowHeight="14640" xr2:uid="{DA62A610-0D5E-C246-A910-E97634B77816}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Nom</t>
   </si>
@@ -49,10 +49,13 @@
     <t>Rigide</t>
   </si>
   <si>
-    <t>Esthétique</t>
-  </si>
-  <si>
     <t>Epais</t>
+  </si>
+  <si>
+    <t>Déparayé</t>
+  </si>
+  <si>
+    <t>Amorphe</t>
   </si>
 </sst>
 </file>
@@ -404,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2A663DD-8A57-5541-B45D-0E34A1CA2121}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -434,12 +437,17 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
